--- a/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
+++ b/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,62 +554,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B16" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B17" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B18" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B21" t="n">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -621,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,22 +625,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
+++ b/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -623,6 +624,341 @@
       </c>
       <c r="B6" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.675326675590361</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.2884299137734</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.6162336840191</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.96371238995656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.354849378888785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.3886510284048</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.75437751811768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.33435591360416</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.253650646242308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.27138848012639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.201342033874662</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.42155711243951</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.396027936575519</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.68104937471269</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.281057636172461</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.00770483354632</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.569382495350565</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.96802067851928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.668241743309831</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.78935623292343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.466791282148916</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17.71560426357298</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.895667895547765</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.220501842119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.038365487615617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.79161933442399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.966562534849354</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.28698215125991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.369452416102429</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.05531543245993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.865403694385821</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.91593779355884</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.918316650595261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.31390359331273</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.886363582542864</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.17607677276602</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-4.339313485876685</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.53246303253703</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.854899896194637</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.752994026682368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.834569675917209</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.812775050451609</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
+++ b/po_analysis_by_asin/B09T2QWDYY_po_data.xlsx
@@ -637,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,16 +656,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -674,12 +664,6 @@
       <c r="B2" t="n">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
-        <v>8.675326675590361</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.2884299137734</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -688,12 +672,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>8.6162336840191</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.96371238995656</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -702,12 +680,6 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.354849378888785</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.3886510284048</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -716,12 +688,6 @@
       <c r="B5" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>7.75437751811768</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.33435591360416</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -730,12 +696,6 @@
       <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.253650646242308</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.27138848012639</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -744,12 +704,6 @@
       <c r="B7" t="n">
         <v>14</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.201342033874662</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.42155711243951</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -758,12 +712,6 @@
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.396027936575519</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20.68104937471269</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -772,12 +720,6 @@
       <c r="B9" t="n">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.281057636172461</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.00770483354632</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -786,12 +728,6 @@
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.569382495350565</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18.96802067851928</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -800,12 +736,6 @@
       <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.668241743309831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18.78935623292343</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -814,12 +744,6 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.466791282148916</v>
-      </c>
-      <c r="D12" t="n">
-        <v>17.71560426357298</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -828,12 +752,6 @@
       <c r="B13" t="n">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.895667895547765</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.220501842119</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -842,12 +760,6 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.038365487615617</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.79161933442399</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -856,12 +768,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.966562534849354</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.28698215125991</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -870,12 +776,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.369452416102429</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.05531543245993</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -884,12 +784,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.865403694385821</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.91593779355884</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -898,12 +792,6 @@
       <c r="B18" t="n">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.918316650595261</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.31390359331273</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -912,12 +800,6 @@
       <c r="B19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3.886363582542864</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.17607677276602</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -926,12 +808,6 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>-4.339313485876685</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10.53246303253703</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -940,12 +816,6 @@
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.854899896194637</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9.752994026682368</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -953,12 +823,6 @@
       </c>
       <c r="B22" t="n">
         <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-4.834569675917209</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.812775050451609</v>
       </c>
     </row>
   </sheetData>
